--- a/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="85">
   <si>
     <t>氏名</t>
   </si>
@@ -268,6 +268,27 @@
   </si>
   <si>
     <t>先週の時間外の活動を体調不良で休んでしまい協力できなかったので、今週はシステムテスト設計をなるべく指摘箇所を減らせるようにしたい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。システムテスト設計を今週中に仕上げてください。12/1(木)に確認を行います。手が空いたら詳細設計に回ってください。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。システムテストは結合テストにも役に立つため、作業を頑張ってください。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。実装と共に、詳細設計書、システムテスト仕様書、結合テスト仕様書などドキュメントの作成も必要と思いますが、適切な役割分担を行なってください。</t>
+  </si>
+  <si>
+    <t>進捗報告・システムテスト設計レビュー</t>
+  </si>
+  <si>
+    <t>詳細設計</t>
+  </si>
+  <si>
+    <t>今回は議事録の記入を主に行い、それ以外の時間は詳細設計を行った。</t>
+  </si>
+  <si>
+    <t>今週は時間外で詳細設計を完成させていきたいと考えている。</t>
   </si>
 </sst>
 </file>
@@ -13874,7 +13895,9 @@
       <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -13883,7 +13906,9 @@
       <c r="A22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -13899,7 +13924,9 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -14923,14 +14950,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14944,7 +14975,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -15006,8 +15037,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
@@ -15015,8 +15050,12 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="12">
+        <v>40.0</v>
+      </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
@@ -15024,17 +15063,29 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="12">
+        <v>50.0</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12">
+        <v>70.0</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
@@ -15042,10 +15093,18 @@
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="12">
+        <v>30.0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
@@ -15096,7 +15155,9 @@
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -15105,7 +15166,9 @@
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -15114,7 +15177,9 @@
       <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -15123,7 +15188,9 @@
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="22"/>
